--- a/data/FE/FE.xlsx
+++ b/data/FE/FE.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastien\Documents\node\data\FE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastien\Documents\project-importNode\data\FE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23745" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18585" windowHeight="5805"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3951,7 +3951,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -4052,6 +4052,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4060,7 +4069,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4248,19 +4257,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4270,6 +4270,30 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4286,20 +4310,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4588,10 +4600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D674"/>
+  <dimension ref="A1:E674"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="A532" workbookViewId="0">
+      <selection activeCell="E532" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4600,6 +4612,7 @@
     <col min="2" max="2" width="20.7109375" style="20" customWidth="1"/>
     <col min="3" max="3" width="53.85546875" customWidth="1"/>
     <col min="4" max="4" width="79" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="229" max="230" width="5.85546875" customWidth="1"/>
     <col min="231" max="231" width="20.7109375" customWidth="1"/>
     <col min="232" max="232" width="46.85546875" customWidth="1"/>
@@ -5232,7 +5245,7 @@
     <col min="16111" max="16111" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5242,8 +5255,9 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="E1" s="82"/>
+    </row>
+    <row r="2" spans="2:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
@@ -5254,7 +5268,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
@@ -5265,7 +5279,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
@@ -5276,7 +5290,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
@@ -5287,7 +5301,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>12</v>
       </c>
@@ -5296,7 +5310,7 @@
       </c>
       <c r="D6" s="11"/>
     </row>
-    <row r="7" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
@@ -5307,7 +5321,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>16</v>
       </c>
@@ -5318,7 +5332,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>18</v>
       </c>
@@ -5329,7 +5343,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>20</v>
       </c>
@@ -5340,7 +5354,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>22</v>
       </c>
@@ -5351,7 +5365,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>24</v>
       </c>
@@ -5362,7 +5376,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
         <v>26</v>
       </c>
@@ -5373,7 +5387,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>28</v>
       </c>
@@ -5384,25 +5398,25 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="66" t="s">
+      <c r="D15" s="76" t="s">
         <v>1215</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="66"/>
-    </row>
-    <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="C16" s="75"/>
+      <c r="D16" s="76"/>
+    </row>
+    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
         <v>33</v>
       </c>
@@ -5413,7 +5427,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>35</v>
       </c>
@@ -5424,7 +5438,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
         <v>37</v>
       </c>
@@ -5435,7 +5449,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>39</v>
       </c>
@@ -5446,7 +5460,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="12" t="s">
         <v>41</v>
@@ -5457,8 +5471,9 @@
       <c r="D21" s="8" t="s">
         <v>1216</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="E21"/>
+    </row>
+    <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
         <v>43</v>
       </c>
@@ -5469,7 +5484,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
         <v>45</v>
       </c>
@@ -5480,7 +5495,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="4" t="s">
         <v>47</v>
@@ -5491,8 +5506,9 @@
       <c r="D24" s="5" t="s">
         <v>1213</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="E24"/>
+    </row>
+    <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>49</v>
       </c>
@@ -5503,7 +5519,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
         <v>51</v>
       </c>
@@ -5514,7 +5530,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
         <v>53</v>
       </c>
@@ -5525,7 +5541,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
         <v>55</v>
       </c>
@@ -5536,7 +5552,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
         <v>57</v>
       </c>
@@ -5545,7 +5561,7 @@
       </c>
       <c r="D29" s="11"/>
     </row>
-    <row r="30" spans="1:4" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="9" t="s">
         <v>58</v>
@@ -5555,7 +5571,7 @@
       </c>
       <c r="D30" s="11"/>
     </row>
-    <row r="31" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B31" s="9" t="s">
         <v>59</v>
       </c>
@@ -5564,7 +5580,7 @@
       </c>
       <c r="D31" s="11"/>
     </row>
-    <row r="32" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
         <v>60</v>
       </c>
@@ -6053,7 +6069,7 @@
       </c>
       <c r="D80" s="23"/>
     </row>
-    <row r="81" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B81" s="12" t="s">
         <v>134</v>
       </c>
@@ -6064,7 +6080,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B82" s="9" t="s">
         <v>136</v>
       </c>
@@ -6073,7 +6089,7 @@
       </c>
       <c r="D82" s="23"/>
     </row>
-    <row r="83" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B83" s="4" t="s">
         <v>137</v>
       </c>
@@ -6084,7 +6100,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B84" s="9" t="s">
         <v>139</v>
       </c>
@@ -6093,7 +6109,7 @@
       </c>
       <c r="D84" s="23"/>
     </row>
-    <row r="85" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B85" s="6" t="s">
         <v>140</v>
       </c>
@@ -6104,7 +6120,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B86" s="9" t="s">
         <v>142</v>
       </c>
@@ -6113,7 +6129,7 @@
       </c>
       <c r="D86" s="23"/>
     </row>
-    <row r="87" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B87" s="9" t="s">
         <v>143</v>
       </c>
@@ -6122,7 +6138,7 @@
       </c>
       <c r="D87" s="11"/>
     </row>
-    <row r="88" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B88" s="9" t="s">
         <v>144</v>
       </c>
@@ -6131,7 +6147,7 @@
       </c>
       <c r="D88" s="11"/>
     </row>
-    <row r="89" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B89" s="9" t="s">
         <v>145</v>
       </c>
@@ -6140,7 +6156,7 @@
       </c>
       <c r="D89" s="23"/>
     </row>
-    <row r="90" spans="1:4" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="12" t="s">
         <v>146</v>
@@ -6151,8 +6167,9 @@
       <c r="D90" s="5" t="s">
         <v>1214</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="E90"/>
+    </row>
+    <row r="91" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B91" s="9" t="s">
         <v>147</v>
       </c>
@@ -6161,7 +6178,7 @@
       </c>
       <c r="D91" s="23"/>
     </row>
-    <row r="92" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B92" s="12" t="s">
         <v>148</v>
       </c>
@@ -6172,7 +6189,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B93" s="9" t="s">
         <v>150</v>
       </c>
@@ -6181,31 +6198,32 @@
       </c>
       <c r="D93" s="23"/>
     </row>
-    <row r="94" spans="1:4" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C94" s="69" t="s">
+      <c r="C94" s="66" t="s">
         <v>152</v>
       </c>
-      <c r="D94" s="72" t="s">
+      <c r="D94" s="77" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="E94"/>
+    </row>
+    <row r="95" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B95" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C95" s="70"/>
-      <c r="D95" s="73"/>
-    </row>
-    <row r="96" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="C95" s="67"/>
+      <c r="D95" s="78"/>
+    </row>
+    <row r="96" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B96" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C96" s="71"/>
-      <c r="D96" s="74"/>
+      <c r="C96" s="68"/>
+      <c r="D96" s="79"/>
     </row>
     <row r="97" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B97" s="9" t="s">
@@ -6282,10 +6300,10 @@
       <c r="B104" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="C104" s="75" t="s">
+      <c r="C104" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="D104" s="76" t="s">
+      <c r="D104" s="81" t="s">
         <v>72</v>
       </c>
     </row>
@@ -6293,8 +6311,8 @@
       <c r="B105" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="C105" s="75"/>
-      <c r="D105" s="76"/>
+      <c r="C105" s="80"/>
+      <c r="D105" s="81"/>
     </row>
     <row r="106" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B106" s="9" t="s">
@@ -6370,7 +6388,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B113" s="12" t="s">
         <v>180</v>
       </c>
@@ -6381,7 +6399,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B114" s="6" t="s">
         <v>182</v>
       </c>
@@ -6391,8 +6409,9 @@
       <c r="D114" s="17" t="s">
         <v>1219</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="E114" s="18"/>
+    </row>
+    <row r="115" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B115" s="9" t="s">
         <v>184</v>
       </c>
@@ -6401,7 +6420,7 @@
       </c>
       <c r="D115" s="11"/>
     </row>
-    <row r="116" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B116" s="12" t="s">
         <v>185</v>
       </c>
@@ -6411,15 +6430,16 @@
       <c r="D116" s="17" t="s">
         <v>1219</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="E116" s="18"/>
+    </row>
+    <row r="117" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B117" s="12" t="s">
         <v>187</v>
       </c>
       <c r="C117" s="12"/>
       <c r="D117" s="17"/>
     </row>
-    <row r="118" spans="1:4" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="12" t="s">
         <v>188</v>
@@ -6431,7 +6451,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B119" s="12" t="s">
         <v>190</v>
       </c>
@@ -6442,7 +6462,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B120" s="12" t="s">
         <v>192</v>
       </c>
@@ -6452,8 +6472,9 @@
       <c r="D120" s="17" t="s">
         <v>1219</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="E120" s="18"/>
+    </row>
+    <row r="121" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B121" s="12" t="s">
         <v>194</v>
       </c>
@@ -6463,8 +6484,9 @@
       <c r="D121" s="17" t="s">
         <v>1219</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="E121" s="18"/>
+    </row>
+    <row r="122" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B122" s="12" t="s">
         <v>196</v>
       </c>
@@ -6475,7 +6497,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="123" spans="1:4" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="12" t="s">
         <v>196</v>
@@ -6486,8 +6508,9 @@
       <c r="D123" s="5" t="s">
         <v>1224</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E123"/>
+    </row>
+    <row r="124" spans="1:5" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="12" t="s">
         <v>198</v>
@@ -6498,8 +6521,9 @@
       <c r="D124" s="5" t="s">
         <v>1228</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="E124"/>
+    </row>
+    <row r="125" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B125" s="12" t="s">
         <v>200</v>
       </c>
@@ -6510,7 +6534,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B126" s="12" t="s">
         <v>202</v>
       </c>
@@ -6521,7 +6545,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B127" s="6" t="s">
         <v>204</v>
       </c>
@@ -6532,7 +6556,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B128" s="4" t="s">
         <v>206</v>
       </c>
@@ -6542,8 +6566,9 @@
       <c r="D128" s="5" t="s">
         <v>1218</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E128" s="18"/>
+    </row>
+    <row r="129" spans="1:5" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="6" t="s">
         <v>208</v>
@@ -6554,8 +6579,9 @@
       <c r="D129" s="8" t="s">
         <v>1222</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="E129" s="18"/>
+    </row>
+    <row r="130" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B130" s="4" t="s">
         <v>210</v>
       </c>
@@ -6566,7 +6592,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B131" s="12" t="s">
         <v>212</v>
       </c>
@@ -6577,7 +6603,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B132" s="6" t="s">
         <v>214</v>
       </c>
@@ -6588,7 +6614,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B133" s="9" t="s">
         <v>216</v>
       </c>
@@ -6597,7 +6623,7 @@
       </c>
       <c r="D133" s="11"/>
     </row>
-    <row r="134" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B134" s="12" t="s">
         <v>217</v>
       </c>
@@ -6608,7 +6634,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B135" s="6" t="s">
         <v>219</v>
       </c>
@@ -6619,7 +6645,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B136" s="9" t="s">
         <v>221</v>
       </c>
@@ -6628,7 +6654,7 @@
       </c>
       <c r="D136" s="11"/>
     </row>
-    <row r="137" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B137" s="12" t="s">
         <v>222</v>
       </c>
@@ -6639,7 +6665,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B138" s="12" t="s">
         <v>223</v>
       </c>
@@ -6650,7 +6676,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B139" s="12" t="s">
         <v>225</v>
       </c>
@@ -6661,7 +6687,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B140" s="12" t="s">
         <v>227</v>
       </c>
@@ -6672,7 +6698,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B141" s="6" t="s">
         <v>230</v>
       </c>
@@ -6683,7 +6709,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B142" s="6" t="s">
         <v>232</v>
       </c>
@@ -6694,7 +6720,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B143" s="12" t="s">
         <v>234</v>
       </c>
@@ -6705,7 +6731,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B144" s="12" t="s">
         <v>236</v>
       </c>
@@ -7042,7 +7068,7 @@
       <c r="C174" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="D174" s="67" t="s">
+      <c r="D174" s="72" t="s">
         <v>1230</v>
       </c>
     </row>
@@ -7053,7 +7079,7 @@
       <c r="C175" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="D175" s="68"/>
+      <c r="D175" s="73"/>
     </row>
     <row r="176" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B176" s="12" t="s">
@@ -7062,7 +7088,7 @@
       <c r="C176" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="D176" s="66" t="s">
+      <c r="D176" s="76" t="s">
         <v>1227</v>
       </c>
     </row>
@@ -7073,7 +7099,7 @@
       <c r="C177" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="D177" s="66"/>
+      <c r="D177" s="76"/>
     </row>
     <row r="178" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B178" s="4" t="s">
@@ -8025,10 +8051,10 @@
       <c r="B264" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="C264" s="69" t="s">
+      <c r="C264" s="66" t="s">
         <v>452</v>
       </c>
-      <c r="D264" s="79" t="s">
+      <c r="D264" s="69" t="s">
         <v>1214</v>
       </c>
     </row>
@@ -8036,22 +8062,22 @@
       <c r="B265" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="C265" s="70"/>
-      <c r="D265" s="80"/>
+      <c r="C265" s="67"/>
+      <c r="D265" s="70"/>
     </row>
     <row r="266" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B266" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="C266" s="70"/>
-      <c r="D266" s="80"/>
+      <c r="C266" s="67"/>
+      <c r="D266" s="70"/>
     </row>
     <row r="267" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B267" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="C267" s="71"/>
-      <c r="D267" s="81"/>
+      <c r="C267" s="68"/>
+      <c r="D267" s="71"/>
     </row>
     <row r="268" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B268" s="4" t="s">
@@ -8075,7 +8101,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B270" s="12" t="s">
         <v>460</v>
       </c>
@@ -8244,7 +8270,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B286" s="12" t="s">
         <v>488</v>
       </c>
@@ -8375,7 +8401,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="298" spans="1:4" s="18" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
       <c r="B298" s="40" t="s">
         <v>509</v>
@@ -9169,7 +9195,7 @@
       </c>
       <c r="D369" s="11"/>
     </row>
-    <row r="370" spans="1:4" s="18" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A370" s="1"/>
       <c r="B370" s="4" t="s">
         <v>638</v>
@@ -10270,10 +10296,10 @@
       <c r="B471" s="12" t="s">
         <v>811</v>
       </c>
-      <c r="C471" s="77" t="s">
+      <c r="C471" s="64" t="s">
         <v>812</v>
       </c>
-      <c r="D471" s="67" t="s">
+      <c r="D471" s="72" t="s">
         <v>1219</v>
       </c>
     </row>
@@ -10281,8 +10307,8 @@
       <c r="B472" s="6" t="s">
         <v>813</v>
       </c>
-      <c r="C472" s="78"/>
-      <c r="D472" s="68"/>
+      <c r="C472" s="65"/>
+      <c r="D472" s="73"/>
     </row>
     <row r="473" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B473" s="12" t="s">
@@ -10527,7 +10553,7 @@
       <c r="B495" s="12" t="s">
         <v>853</v>
       </c>
-      <c r="C495" s="77" t="s">
+      <c r="C495" s="64" t="s">
         <v>854</v>
       </c>
       <c r="D495" s="5" t="s">
@@ -10538,7 +10564,7 @@
       <c r="B496" s="4" t="s">
         <v>855</v>
       </c>
-      <c r="C496" s="78"/>
+      <c r="C496" s="65"/>
       <c r="D496" s="5" t="s">
         <v>1240</v>
       </c>
@@ -12464,11 +12490,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C495:C496"/>
-    <mergeCell ref="C264:C267"/>
-    <mergeCell ref="D264:D267"/>
-    <mergeCell ref="C471:C472"/>
-    <mergeCell ref="D471:D472"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="D174:D175"/>
@@ -12477,6 +12498,11 @@
     <mergeCell ref="D94:D96"/>
     <mergeCell ref="C104:C105"/>
     <mergeCell ref="D104:D105"/>
+    <mergeCell ref="C495:C496"/>
+    <mergeCell ref="C264:C267"/>
+    <mergeCell ref="D264:D267"/>
+    <mergeCell ref="C471:C472"/>
+    <mergeCell ref="D471:D472"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/FE/FE.xlsx
+++ b/data/FE/FE.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18585" windowHeight="5805"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14565" windowHeight="5805" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="POIs" sheetId="1" r:id="rId1"/>
+    <sheet name="Categories" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1901" uniqueCount="1245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1955" uniqueCount="1250">
   <si>
     <t>Unit No</t>
   </si>
@@ -3759,9 +3760,6 @@
     <t>Fashion Apparels, Fashion Accessories &amp; Shoes</t>
   </si>
   <si>
-    <t>Departmental Store and Mini Marts</t>
-  </si>
-  <si>
     <t>Confectionery &amp; Snacks</t>
   </si>
   <si>
@@ -3771,9 +3769,6 @@
     <t>Services</t>
   </si>
   <si>
-    <t>Hair and Make-Up Services</t>
-  </si>
-  <si>
     <t>Electronics, Cameras, Mobile Phones &amp; Printing Services</t>
   </si>
   <si>
@@ -3804,9 +3799,6 @@
     <t xml:space="preserve">HJ Luxury Pte Ltd </t>
   </si>
   <si>
-    <t>Tailoring and Alteration</t>
-  </si>
-  <si>
     <t>Tattoos &amp; Body Art</t>
   </si>
   <si>
@@ -3831,12 +3823,6 @@
     <t>Jewellery &amp; Timepieces</t>
   </si>
   <si>
-    <t>Health and Wellness Services</t>
-  </si>
-  <si>
-    <t>Tattoos and Body Art</t>
-  </si>
-  <si>
     <t>Jewellery &amp; Timepiese</t>
   </si>
   <si>
@@ -3846,14 +3832,44 @@
     <t>Jewellery &amp; Tiepiece</t>
   </si>
   <si>
-    <t>Beauty Academy and Other Consultancy Services</t>
+    <t>Shops</t>
+  </si>
+  <si>
+    <t>Jewellery &amp; Watches</t>
+  </si>
+  <si>
+    <t>Tailoring &amp; Alteration</t>
+  </si>
+  <si>
+    <t>Food and Beverage</t>
+  </si>
+  <si>
+    <t>Snacks</t>
+  </si>
+  <si>
+    <t>Departmental Store &amp; Mini Marts</t>
+  </si>
+  <si>
+    <t>Restaurant &amp; Cafés</t>
+  </si>
+  <si>
+    <t>MainCategories</t>
+  </si>
+  <si>
+    <t>SubCategories</t>
+  </si>
+  <si>
+    <t>Hair &amp; Make-Up Services</t>
+  </si>
+  <si>
+    <t>Beauty Academy &amp; Other Consultancy Services</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3917,6 +3933,14 @@
       <sz val="14"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -4069,7 +4093,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4256,11 +4280,24 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4270,30 +4307,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4310,8 +4323,20 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4602,8 +4627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E674"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A532" workbookViewId="0">
-      <selection activeCell="E532" sqref="E1:E1048576"/>
+    <sheetView topLeftCell="A244" workbookViewId="0">
+      <selection activeCell="C276" sqref="C276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5255,7 +5280,7 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="82"/>
+      <c r="E1" s="64"/>
     </row>
     <row r="2" spans="2:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
@@ -5287,7 +5312,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="18" x14ac:dyDescent="0.25">
@@ -5298,7 +5323,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.25">
@@ -5329,7 +5354,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="18" x14ac:dyDescent="0.25">
@@ -5351,7 +5376,7 @@
         <v>21</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>1215</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="18" x14ac:dyDescent="0.25">
@@ -5402,19 +5427,19 @@
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="74" t="s">
+      <c r="C15" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="76" t="s">
-        <v>1215</v>
+      <c r="D15" s="68" t="s">
+        <v>1244</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="75"/>
-      <c r="D16" s="76"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="68"/>
     </row>
     <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
@@ -5424,7 +5449,7 @@
         <v>34</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>1215</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.25">
@@ -5435,7 +5460,7 @@
         <v>36</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.25">
@@ -5446,7 +5471,7 @@
         <v>38</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.25">
@@ -5457,7 +5482,7 @@
         <v>40</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -5469,7 +5494,7 @@
         <v>42</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E21"/>
     </row>
@@ -5481,7 +5506,7 @@
         <v>44</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.25">
@@ -5492,7 +5517,7 @@
         <v>46</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -5588,7 +5613,7 @@
         <v>61</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -5637,7 +5662,7 @@
         <v>68</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -5657,7 +5682,7 @@
         <v>71</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -5668,7 +5693,7 @@
         <v>74</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -5701,7 +5726,7 @@
         <v>81</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -5712,7 +5737,7 @@
         <v>83</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -5723,7 +5748,7 @@
         <v>85</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="46" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -5734,7 +5759,7 @@
         <v>87</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="47" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -5776,7 +5801,7 @@
         <v>93</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -5832,7 +5857,7 @@
         <v>100</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="57" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -5890,7 +5915,7 @@
         <v>108</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="63" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -5950,7 +5975,7 @@
         <v>117</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="69" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -5981,7 +6006,7 @@
         <v>122</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="72" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -6001,7 +6026,7 @@
         <v>125</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="74" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -6012,7 +6037,7 @@
         <v>127</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="75" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -6203,10 +6228,10 @@
       <c r="B94" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C94" s="66" t="s">
+      <c r="C94" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="D94" s="77" t="s">
+      <c r="D94" s="74" t="s">
         <v>72</v>
       </c>
       <c r="E94"/>
@@ -6215,15 +6240,15 @@
       <c r="B95" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C95" s="67"/>
-      <c r="D95" s="78"/>
+      <c r="C95" s="72"/>
+      <c r="D95" s="75"/>
     </row>
     <row r="96" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B96" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C96" s="68"/>
-      <c r="D96" s="79"/>
+      <c r="C96" s="73"/>
+      <c r="D96" s="76"/>
     </row>
     <row r="97" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B97" s="9" t="s">
@@ -6260,7 +6285,7 @@
         <v>159</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -6271,7 +6296,7 @@
         <v>161</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -6300,10 +6325,10 @@
       <c r="B104" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="C104" s="80" t="s">
+      <c r="C104" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="D104" s="81" t="s">
+      <c r="D104" s="78" t="s">
         <v>72</v>
       </c>
     </row>
@@ -6311,8 +6336,8 @@
       <c r="B105" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="C105" s="80"/>
-      <c r="D105" s="81"/>
+      <c r="C105" s="77"/>
+      <c r="D105" s="78"/>
     </row>
     <row r="106" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B106" s="9" t="s">
@@ -6342,7 +6367,7 @@
         <v>172</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -6363,7 +6388,7 @@
         <v>175</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -6374,7 +6399,7 @@
         <v>177</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -6385,7 +6410,7 @@
         <v>179</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>1215</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="18" x14ac:dyDescent="0.25">
@@ -6396,7 +6421,7 @@
         <v>181</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="18" x14ac:dyDescent="0.25">
@@ -6407,7 +6432,7 @@
         <v>183</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
       <c r="E114" s="18"/>
     </row>
@@ -6428,7 +6453,7 @@
         <v>186</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
       <c r="E116" s="18"/>
     </row>
@@ -6448,7 +6473,7 @@
         <v>189</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="18" x14ac:dyDescent="0.25">
@@ -6459,7 +6484,7 @@
         <v>191</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="18" x14ac:dyDescent="0.25">
@@ -6470,7 +6495,7 @@
         <v>193</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
       <c r="E120" s="18"/>
     </row>
@@ -6482,7 +6507,7 @@
         <v>195</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
       <c r="E121" s="18"/>
     </row>
@@ -6494,7 +6519,7 @@
         <v>197</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="123" spans="1:5" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -6506,7 +6531,7 @@
         <v>1164</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="E123"/>
     </row>
@@ -6519,7 +6544,7 @@
         <v>199</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="E124"/>
     </row>
@@ -6531,7 +6556,7 @@
         <v>201</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="18" x14ac:dyDescent="0.25">
@@ -6553,7 +6578,7 @@
         <v>205</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="18" x14ac:dyDescent="0.25">
@@ -6564,7 +6589,7 @@
         <v>207</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E128" s="18"/>
     </row>
@@ -6577,7 +6602,7 @@
         <v>209</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="E129" s="18"/>
     </row>
@@ -6589,7 +6614,7 @@
         <v>211</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="18" x14ac:dyDescent="0.25">
@@ -6600,7 +6625,7 @@
         <v>213</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="18" x14ac:dyDescent="0.25">
@@ -6611,7 +6636,7 @@
         <v>215</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="18" x14ac:dyDescent="0.25">
@@ -6631,7 +6656,7 @@
         <v>218</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="18" x14ac:dyDescent="0.25">
@@ -6642,7 +6667,7 @@
         <v>220</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="18" x14ac:dyDescent="0.25">
@@ -6659,10 +6684,10 @@
         <v>222</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="18" x14ac:dyDescent="0.25">
@@ -6673,7 +6698,7 @@
         <v>224</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="18" x14ac:dyDescent="0.25">
@@ -6684,7 +6709,7 @@
         <v>226</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="18" x14ac:dyDescent="0.25">
@@ -6695,7 +6720,7 @@
         <v>228</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>1230</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="18" x14ac:dyDescent="0.25">
@@ -6706,7 +6731,7 @@
         <v>231</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="18" x14ac:dyDescent="0.25">
@@ -6717,7 +6742,7 @@
         <v>233</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="18" x14ac:dyDescent="0.25">
@@ -6739,7 +6764,7 @@
         <v>237</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>1230</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -6750,7 +6775,7 @@
         <v>239</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -6761,7 +6786,7 @@
         <v>241</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="147" spans="1:4" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -6773,7 +6798,7 @@
         <v>243</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -6784,7 +6809,7 @@
         <v>245</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -6795,7 +6820,7 @@
         <v>247</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -6826,7 +6851,7 @@
         <v>251</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -6837,7 +6862,7 @@
         <v>253</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -6848,7 +6873,7 @@
         <v>255</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -6859,7 +6884,7 @@
         <v>257</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -6870,7 +6895,7 @@
         <v>259</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>1230</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -6892,7 +6917,7 @@
         <v>262</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>1230</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -6903,7 +6928,7 @@
         <v>264</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>1230</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="160" spans="1:4" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -6926,7 +6951,7 @@
         <v>268</v>
       </c>
       <c r="D161" s="19" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="162" spans="1:4" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -6938,7 +6963,7 @@
         <v>270</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -6949,7 +6974,7 @@
         <v>272</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -6960,7 +6985,7 @@
         <v>274</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -6971,7 +6996,7 @@
         <v>276</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -6993,7 +7018,7 @@
         <v>280</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="168" spans="1:4" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -7047,7 +7072,7 @@
         <v>289</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7058,7 +7083,7 @@
         <v>291</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7068,8 +7093,8 @@
       <c r="C174" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="D174" s="72" t="s">
-        <v>1230</v>
+      <c r="D174" s="69" t="s">
+        <v>1241</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7079,7 +7104,7 @@
       <c r="C175" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="D175" s="73"/>
+      <c r="D175" s="70"/>
     </row>
     <row r="176" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B176" s="12" t="s">
@@ -7088,8 +7113,8 @@
       <c r="C176" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="D176" s="76" t="s">
-        <v>1227</v>
+      <c r="D176" s="68" t="s">
+        <v>1225</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7099,7 +7124,7 @@
       <c r="C177" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="D177" s="76"/>
+      <c r="D177" s="68"/>
     </row>
     <row r="178" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B178" s="4" t="s">
@@ -7109,7 +7134,7 @@
         <v>299</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="179" spans="1:4" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -7121,7 +7146,7 @@
         <v>301</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7132,7 +7157,7 @@
         <v>303</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7143,7 +7168,7 @@
         <v>305</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7154,7 +7179,7 @@
         <v>307</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="183" spans="1:4" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -7175,7 +7200,7 @@
         <v>310</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7186,7 +7211,7 @@
         <v>312</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>1230</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7197,7 +7222,7 @@
         <v>314</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7208,7 +7233,7 @@
         <v>316</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>1230</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7219,7 +7244,7 @@
         <v>318</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7230,7 +7255,7 @@
         <v>320</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7253,7 +7278,7 @@
         <v>324</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7264,7 +7289,7 @@
         <v>326</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7275,7 +7300,7 @@
         <v>328</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7286,7 +7311,7 @@
         <v>330</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>1230</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7308,7 +7333,7 @@
         <v>334</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>1230</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7328,7 +7353,7 @@
         <v>337</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7339,7 +7364,7 @@
         <v>339</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>1230</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7350,7 +7375,7 @@
         <v>341</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>1230</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7361,7 +7386,7 @@
         <v>343</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7372,7 +7397,7 @@
         <v>345</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="203" spans="1:4" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -7384,7 +7409,7 @@
         <v>347</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7395,7 +7420,7 @@
         <v>349</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7406,7 +7431,7 @@
         <v>351</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7417,7 +7442,7 @@
         <v>1167</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>1230</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7425,10 +7450,10 @@
         <v>353</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7439,7 +7464,7 @@
         <v>355</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7450,7 +7475,7 @@
         <v>357</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="210" spans="1:4" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -7472,7 +7497,7 @@
         <v>360</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7483,7 +7508,7 @@
         <v>1168</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7494,7 +7519,7 @@
         <v>363</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7505,7 +7530,7 @@
         <v>365</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7516,7 +7541,7 @@
         <v>366</v>
       </c>
       <c r="D215" s="28" t="s">
-        <v>1230</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7527,7 +7552,7 @@
         <v>368</v>
       </c>
       <c r="D216" s="30" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7538,7 +7563,7 @@
         <v>370</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7549,7 +7574,7 @@
         <v>372</v>
       </c>
       <c r="D218" s="30" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7569,7 +7594,7 @@
         <v>375</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7613,7 +7638,7 @@
         <v>1169</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7624,7 +7649,7 @@
         <v>382</v>
       </c>
       <c r="D225" s="5" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7657,7 +7682,7 @@
         <v>388</v>
       </c>
       <c r="D228" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7688,7 +7713,7 @@
         <v>393</v>
       </c>
       <c r="D231" s="5" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7734,7 +7759,7 @@
         <v>401</v>
       </c>
       <c r="D235" s="5" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7835,7 +7860,7 @@
         <v>418</v>
       </c>
       <c r="D244" s="8" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7935,7 +7960,7 @@
         <v>433</v>
       </c>
       <c r="D253" s="8" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="254" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7946,7 +7971,7 @@
         <v>435</v>
       </c>
       <c r="D254" s="8" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7957,7 +7982,7 @@
         <v>437</v>
       </c>
       <c r="D255" s="5" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7968,7 +7993,7 @@
         <v>1175</v>
       </c>
       <c r="D256" s="5" t="s">
-        <v>1230</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -8002,7 +8027,7 @@
         <v>443</v>
       </c>
       <c r="D259" s="8" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -8022,7 +8047,7 @@
         <v>446</v>
       </c>
       <c r="D261" s="5" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -8051,10 +8076,10 @@
       <c r="B264" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="C264" s="66" t="s">
+      <c r="C264" s="71" t="s">
         <v>452</v>
       </c>
-      <c r="D264" s="69" t="s">
+      <c r="D264" s="81" t="s">
         <v>1214</v>
       </c>
     </row>
@@ -8062,22 +8087,22 @@
       <c r="B265" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="C265" s="67"/>
-      <c r="D265" s="70"/>
+      <c r="C265" s="72"/>
+      <c r="D265" s="82"/>
     </row>
     <row r="266" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B266" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="C266" s="67"/>
-      <c r="D266" s="70"/>
+      <c r="C266" s="72"/>
+      <c r="D266" s="82"/>
     </row>
     <row r="267" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B267" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="C267" s="68"/>
-      <c r="D267" s="71"/>
+      <c r="C267" s="73"/>
+      <c r="D267" s="83"/>
     </row>
     <row r="268" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B268" s="4" t="s">
@@ -8087,7 +8112,7 @@
         <v>457</v>
       </c>
       <c r="D268" s="5" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -8109,7 +8134,7 @@
         <v>461</v>
       </c>
       <c r="D270" s="25" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -8120,7 +8145,7 @@
         <v>463</v>
       </c>
       <c r="D271" s="5" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="272" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -8142,7 +8167,7 @@
         <v>467</v>
       </c>
       <c r="D273" s="5" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="274" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -8164,7 +8189,7 @@
         <v>471</v>
       </c>
       <c r="D275" s="5" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="276" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -8186,7 +8211,7 @@
         <v>475</v>
       </c>
       <c r="D277" s="5" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="278" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -8255,7 +8280,7 @@
         <v>485</v>
       </c>
       <c r="D284" s="24" t="s">
-        <v>1230</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="285" spans="1:4" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -8267,7 +8292,7 @@
         <v>487</v>
       </c>
       <c r="D285" s="8" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="286" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -8278,7 +8303,7 @@
         <v>489</v>
       </c>
       <c r="D286" s="8" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="287" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -8289,7 +8314,7 @@
         <v>491</v>
       </c>
       <c r="D287" s="5" t="s">
-        <v>1230</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="288" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -8309,7 +8334,7 @@
         <v>494</v>
       </c>
       <c r="D289" s="8" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="290" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -8320,7 +8345,7 @@
         <v>496</v>
       </c>
       <c r="D290" s="8" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="291" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -8342,7 +8367,7 @@
         <v>499</v>
       </c>
       <c r="D292" s="5" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="293" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -8364,7 +8389,7 @@
         <v>503</v>
       </c>
       <c r="D294" s="8" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="295" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -8375,7 +8400,7 @@
         <v>505</v>
       </c>
       <c r="D295" s="5" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="296" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -8386,7 +8411,7 @@
         <v>507</v>
       </c>
       <c r="D296" s="5" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="297" spans="1:4" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -8395,10 +8420,10 @@
         <v>508</v>
       </c>
       <c r="C297" s="6" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="D297" s="8" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="298" spans="1:4" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -8410,7 +8435,7 @@
         <v>510</v>
       </c>
       <c r="D298" s="5" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="299" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -8421,7 +8446,7 @@
         <v>512</v>
       </c>
       <c r="D299" s="5" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="300" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -8432,7 +8457,7 @@
         <v>514</v>
       </c>
       <c r="D300" s="8" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="301" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -8443,7 +8468,7 @@
         <v>1179</v>
       </c>
       <c r="D301" s="8" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="302" spans="1:4" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -8455,7 +8480,7 @@
         <v>517</v>
       </c>
       <c r="D302" s="17" t="s">
-        <v>1230</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="303" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -8466,7 +8491,7 @@
         <v>519</v>
       </c>
       <c r="D303" s="8" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="304" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -8477,7 +8502,7 @@
         <v>521</v>
       </c>
       <c r="D304" s="17" t="s">
-        <v>1230</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="305" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -8488,7 +8513,7 @@
         <v>522</v>
       </c>
       <c r="D305" s="17" t="s">
-        <v>1230</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="306" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -8510,7 +8535,7 @@
         <v>526</v>
       </c>
       <c r="D307" s="5" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="308" spans="1:4" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -8522,7 +8547,7 @@
         <v>528</v>
       </c>
       <c r="D308" s="25" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="309" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -8533,7 +8558,7 @@
         <v>530</v>
       </c>
       <c r="D309" s="5" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="310" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -8544,7 +8569,7 @@
         <v>532</v>
       </c>
       <c r="D310" s="5" t="s">
-        <v>1230</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="311" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -8555,7 +8580,7 @@
         <v>534</v>
       </c>
       <c r="D311" s="5" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="312" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -8566,7 +8591,7 @@
         <v>536</v>
       </c>
       <c r="D312" s="8" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="313" spans="1:4" s="46" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -8610,7 +8635,7 @@
         <v>543</v>
       </c>
       <c r="D316" s="5" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="317" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -8621,7 +8646,7 @@
         <v>545</v>
       </c>
       <c r="D317" s="25" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="318" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -8632,7 +8657,7 @@
         <v>547</v>
       </c>
       <c r="D318" s="8" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="319" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -8709,7 +8734,7 @@
         <v>1180</v>
       </c>
       <c r="D325" s="8" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="326" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -8753,7 +8778,7 @@
         <v>568</v>
       </c>
       <c r="D329" s="8" t="s">
-        <v>1239</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="330" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -8783,10 +8808,10 @@
         <v>570</v>
       </c>
       <c r="C332" s="33" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="D332" s="5" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="333" spans="1:4" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -8798,7 +8823,7 @@
         <v>1182</v>
       </c>
       <c r="D333" s="5" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="334" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -8832,7 +8857,7 @@
         <v>577</v>
       </c>
       <c r="D336" s="8" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="337" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -8854,7 +8879,7 @@
         <v>581</v>
       </c>
       <c r="D338" s="5" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="339" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -8920,7 +8945,7 @@
         <v>592</v>
       </c>
       <c r="D344" s="24" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="345" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -8965,7 +8990,7 @@
         <v>599</v>
       </c>
       <c r="D348" s="5" t="s">
-        <v>1230</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="349" spans="1:4" ht="36" x14ac:dyDescent="0.25">
@@ -8976,7 +9001,7 @@
         <v>601</v>
       </c>
       <c r="D349" s="25" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="350" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -9018,7 +9043,7 @@
         <v>608</v>
       </c>
       <c r="D353" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="354" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -9040,7 +9065,7 @@
         <v>612</v>
       </c>
       <c r="D355" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="356" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -9062,7 +9087,7 @@
         <v>616</v>
       </c>
       <c r="D357" s="5" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="358" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -9095,7 +9120,7 @@
         <v>622</v>
       </c>
       <c r="D360" s="38" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="361" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -9128,7 +9153,7 @@
         <v>628</v>
       </c>
       <c r="D363" s="5" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="364" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -9139,7 +9164,7 @@
         <v>630</v>
       </c>
       <c r="D364" s="5" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="365" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -9204,7 +9229,7 @@
         <v>639</v>
       </c>
       <c r="D370" s="5" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="371" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -9227,7 +9252,7 @@
         <v>1187</v>
       </c>
       <c r="D372" s="8" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="373" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -9271,7 +9296,7 @@
         <v>647</v>
       </c>
       <c r="D376" s="8" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="377" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -9282,7 +9307,7 @@
         <v>649</v>
       </c>
       <c r="D377" s="5" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="378" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -9412,7 +9437,7 @@
         <v>667</v>
       </c>
       <c r="D389" s="5" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="390" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -9423,7 +9448,7 @@
         <v>608</v>
       </c>
       <c r="D390" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="391" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -9434,7 +9459,7 @@
         <v>670</v>
       </c>
       <c r="D391" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="392" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -9467,7 +9492,7 @@
         <v>676</v>
       </c>
       <c r="D394" s="49" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="395" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -9478,7 +9503,7 @@
         <v>678</v>
       </c>
       <c r="D395" s="5" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="396" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -9489,7 +9514,7 @@
         <v>680</v>
       </c>
       <c r="D396" s="5" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="397" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -9500,7 +9525,7 @@
         <v>682</v>
       </c>
       <c r="D397" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="398" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -9511,7 +9536,7 @@
         <v>684</v>
       </c>
       <c r="D398" s="5" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="399" spans="1:4" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -9523,7 +9548,7 @@
         <v>686</v>
       </c>
       <c r="D399" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="400" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -9543,7 +9568,7 @@
         <v>689</v>
       </c>
       <c r="D401" s="5" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="402" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -9554,7 +9579,7 @@
         <v>691</v>
       </c>
       <c r="D402" s="5" t="s">
-        <v>1240</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="403" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -9565,7 +9590,7 @@
         <v>693</v>
       </c>
       <c r="D403" s="5" t="s">
-        <v>1240</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="404" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -9576,7 +9601,7 @@
         <v>695</v>
       </c>
       <c r="D404" s="5" t="s">
-        <v>1244</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="405" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -9587,7 +9612,7 @@
         <v>697</v>
       </c>
       <c r="D405" s="5" t="s">
-        <v>1240</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="406" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -9607,7 +9632,7 @@
         <v>1191</v>
       </c>
       <c r="D407" s="5" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="408" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -9638,7 +9663,7 @@
         <v>704</v>
       </c>
       <c r="D410" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="411" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -9672,7 +9697,7 @@
         <v>710</v>
       </c>
       <c r="D413" s="5" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="414" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -9683,7 +9708,7 @@
         <v>712</v>
       </c>
       <c r="D414" s="5" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="415" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -9694,7 +9719,7 @@
         <v>714</v>
       </c>
       <c r="D415" s="5" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="416" spans="1:4" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -9718,7 +9743,7 @@
         <v>718</v>
       </c>
       <c r="D417" s="5" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="418" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -9758,7 +9783,7 @@
         <v>723</v>
       </c>
       <c r="D421" s="5" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="422" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -9798,7 +9823,7 @@
       </c>
       <c r="C425" s="50"/>
       <c r="D425" s="5" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="426" spans="1:4" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -9810,7 +9835,7 @@
         <v>731</v>
       </c>
       <c r="D426" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="427" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -9843,7 +9868,7 @@
         <v>737</v>
       </c>
       <c r="D429" s="5" t="s">
-        <v>1230</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="430" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -9854,7 +9879,7 @@
         <v>739</v>
       </c>
       <c r="D430" s="5" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="431" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -9865,7 +9890,7 @@
         <v>741</v>
       </c>
       <c r="D431" s="5" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="432" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -9885,7 +9910,7 @@
         <v>744</v>
       </c>
       <c r="D433" s="8" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="434" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -9896,7 +9921,7 @@
         <v>746</v>
       </c>
       <c r="D434" s="8" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="435" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -9936,7 +9961,7 @@
         <v>752</v>
       </c>
       <c r="D438" s="5" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="439" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -10011,7 +10036,7 @@
         <v>670</v>
       </c>
       <c r="D445" s="5" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="446" spans="1:4" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -10079,7 +10104,7 @@
         <v>1194</v>
       </c>
       <c r="D451" s="5" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="452" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -10090,7 +10115,7 @@
         <v>777</v>
       </c>
       <c r="D452" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="453" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -10101,7 +10126,7 @@
         <v>779</v>
       </c>
       <c r="D453" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="454" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -10112,7 +10137,7 @@
         <v>781</v>
       </c>
       <c r="D454" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="455" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -10123,7 +10148,7 @@
         <v>783</v>
       </c>
       <c r="D455" s="19" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="456" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -10134,7 +10159,7 @@
         <v>785</v>
       </c>
       <c r="D456" s="19" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="457" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -10145,7 +10170,7 @@
         <v>787</v>
       </c>
       <c r="D457" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="458" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -10156,7 +10181,7 @@
         <v>789</v>
       </c>
       <c r="D458" s="19" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="459" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -10167,7 +10192,7 @@
         <v>791</v>
       </c>
       <c r="D459" s="19" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="460" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -10189,7 +10214,7 @@
         <v>1195</v>
       </c>
       <c r="D461" s="5" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="462" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -10200,7 +10225,7 @@
         <v>796</v>
       </c>
       <c r="D462" s="5" t="s">
-        <v>1240</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="463" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -10211,7 +10236,7 @@
         <v>798</v>
       </c>
       <c r="D463" s="5" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="464" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -10222,7 +10247,7 @@
         <v>800</v>
       </c>
       <c r="D464" s="5" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="465" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -10233,7 +10258,7 @@
         <v>802</v>
       </c>
       <c r="D465" s="5" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="466" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -10244,7 +10269,7 @@
         <v>804</v>
       </c>
       <c r="D466" s="5" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="467" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -10255,7 +10280,7 @@
         <v>435</v>
       </c>
       <c r="D467" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="468" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -10266,7 +10291,7 @@
         <v>783</v>
       </c>
       <c r="D468" s="19" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="469" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -10277,7 +10302,7 @@
         <v>808</v>
       </c>
       <c r="D469" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="470" spans="1:4" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -10289,26 +10314,26 @@
         <v>810</v>
       </c>
       <c r="D470" s="5" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="471" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B471" s="12" t="s">
         <v>811</v>
       </c>
-      <c r="C471" s="64" t="s">
+      <c r="C471" s="79" t="s">
         <v>812</v>
       </c>
-      <c r="D471" s="72" t="s">
-        <v>1219</v>
+      <c r="D471" s="69" t="s">
+        <v>1248</v>
       </c>
     </row>
     <row r="472" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B472" s="6" t="s">
         <v>813</v>
       </c>
-      <c r="C472" s="65"/>
-      <c r="D472" s="73"/>
+      <c r="C472" s="80"/>
+      <c r="D472" s="70"/>
     </row>
     <row r="473" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B473" s="12" t="s">
@@ -10318,7 +10343,7 @@
         <v>815</v>
       </c>
       <c r="D473" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="474" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -10329,7 +10354,7 @@
         <v>817</v>
       </c>
       <c r="D474" s="5" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="475" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -10340,7 +10365,7 @@
         <v>676</v>
       </c>
       <c r="D475" s="5" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="476" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -10351,7 +10376,7 @@
         <v>820</v>
       </c>
       <c r="D476" s="5" t="s">
-        <v>1230</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="477" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -10371,7 +10396,7 @@
         <v>823</v>
       </c>
       <c r="D478" s="5" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="479" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -10382,7 +10407,7 @@
         <v>825</v>
       </c>
       <c r="D479" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="480" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -10393,7 +10418,7 @@
         <v>827</v>
       </c>
       <c r="D480" s="8" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="481" spans="1:4" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -10405,7 +10430,7 @@
         <v>1196</v>
       </c>
       <c r="D481" s="5" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="482" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -10416,7 +10441,7 @@
         <v>830</v>
       </c>
       <c r="D482" s="5" t="s">
-        <v>1230</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="483" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -10445,7 +10470,7 @@
         <v>835</v>
       </c>
       <c r="D485" s="5" t="s">
-        <v>1244</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="486" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -10456,7 +10481,7 @@
         <v>837</v>
       </c>
       <c r="D486" s="17" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="487" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -10467,7 +10492,7 @@
         <v>1197</v>
       </c>
       <c r="D487" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="488" spans="1:4" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -10490,7 +10515,7 @@
         <v>842</v>
       </c>
       <c r="D489" s="5" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="490" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -10512,7 +10537,7 @@
         <v>846</v>
       </c>
       <c r="D491" s="5" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="492" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -10535,7 +10560,7 @@
         <v>850</v>
       </c>
       <c r="D493" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="494" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -10546,27 +10571,27 @@
         <v>852</v>
       </c>
       <c r="D494" s="5" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="495" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B495" s="12" t="s">
         <v>853</v>
       </c>
-      <c r="C495" s="64" t="s">
+      <c r="C495" s="79" t="s">
         <v>854</v>
       </c>
       <c r="D495" s="5" t="s">
-        <v>1240</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="496" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B496" s="4" t="s">
         <v>855</v>
       </c>
-      <c r="C496" s="65"/>
+      <c r="C496" s="80"/>
       <c r="D496" s="5" t="s">
-        <v>1240</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="497" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -10577,7 +10602,7 @@
         <v>857</v>
       </c>
       <c r="D497" s="5" t="s">
-        <v>1230</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="498" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -10588,7 +10613,7 @@
         <v>859</v>
       </c>
       <c r="D498" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="499" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -10599,7 +10624,7 @@
         <v>857</v>
       </c>
       <c r="D499" s="5" t="s">
-        <v>1230</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="500" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -10610,7 +10635,7 @@
         <v>862</v>
       </c>
       <c r="D500" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="501" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -10632,7 +10657,7 @@
         <v>866</v>
       </c>
       <c r="D502" s="19" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="503" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -10654,7 +10679,7 @@
         <v>870</v>
       </c>
       <c r="D504" s="5" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="505" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -10721,7 +10746,7 @@
         <v>881</v>
       </c>
       <c r="D510" s="5" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="511" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -10741,7 +10766,7 @@
         <v>884</v>
       </c>
       <c r="D512" s="8" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="513" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -10858,7 +10883,7 @@
         <v>904</v>
       </c>
       <c r="D523" s="5" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="524" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -10880,7 +10905,7 @@
         <v>908</v>
       </c>
       <c r="D525" s="5" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="526" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -10891,7 +10916,7 @@
         <v>910</v>
       </c>
       <c r="D526" s="17" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="527" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -10913,7 +10938,7 @@
         <v>913</v>
       </c>
       <c r="D528" s="17" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="529" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -10933,7 +10958,7 @@
         <v>915</v>
       </c>
       <c r="D530" s="5" t="s">
-        <v>1230</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="531" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -10955,7 +10980,7 @@
         <v>1199</v>
       </c>
       <c r="D532" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="533" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -10966,7 +10991,7 @@
         <v>920</v>
       </c>
       <c r="D533" s="5" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="534" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -10977,7 +11002,7 @@
         <v>922</v>
       </c>
       <c r="D534" s="5" t="s">
-        <v>1230</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="535" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -11041,7 +11066,7 @@
         <v>1200</v>
       </c>
       <c r="D540" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="541" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -11063,7 +11088,7 @@
         <v>934</v>
       </c>
       <c r="D542" s="5" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="543" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -11107,7 +11132,7 @@
         <v>941</v>
       </c>
       <c r="D546" s="17" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="547" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -11162,7 +11187,7 @@
         <v>950</v>
       </c>
       <c r="D551" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="552" spans="1:4" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -11185,7 +11210,7 @@
         <v>954</v>
       </c>
       <c r="D553" s="5" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="554" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11219,7 +11244,7 @@
         <v>960</v>
       </c>
       <c r="D556" s="5" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="557" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -11230,7 +11255,7 @@
         <v>962</v>
       </c>
       <c r="D557" s="5" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="558" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -11241,7 +11266,7 @@
         <v>964</v>
       </c>
       <c r="D558" s="5" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="559" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -11252,7 +11277,7 @@
         <v>966</v>
       </c>
       <c r="D559" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="560" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -11263,7 +11288,7 @@
         <v>968</v>
       </c>
       <c r="D560" s="5" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="561" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -11274,7 +11299,7 @@
         <v>970</v>
       </c>
       <c r="D561" s="25" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="562" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -11285,7 +11310,7 @@
         <v>972</v>
       </c>
       <c r="D562" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="563" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -11296,7 +11321,7 @@
         <v>974</v>
       </c>
       <c r="D563" s="5" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="564" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -11307,7 +11332,7 @@
         <v>976</v>
       </c>
       <c r="D564" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="565" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -11318,7 +11343,7 @@
         <v>978</v>
       </c>
       <c r="D565" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="566" spans="1:4" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -11330,7 +11355,7 @@
         <v>980</v>
       </c>
       <c r="D566" s="5" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="567" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -11341,7 +11366,7 @@
         <v>982</v>
       </c>
       <c r="D567" s="5" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="568" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -11352,7 +11377,7 @@
         <v>984</v>
       </c>
       <c r="D568" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="569" spans="1:4" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -11364,7 +11389,7 @@
         <v>986</v>
       </c>
       <c r="D569" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="570" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -11375,7 +11400,7 @@
         <v>988</v>
       </c>
       <c r="D570" s="5" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="571" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -11397,7 +11422,7 @@
         <v>992</v>
       </c>
       <c r="D572" s="17" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="573" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -11430,7 +11455,7 @@
         <v>998</v>
       </c>
       <c r="D575" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="576" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -11441,7 +11466,7 @@
         <v>988</v>
       </c>
       <c r="D576" s="5" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="577" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -11452,7 +11477,7 @@
         <v>1001</v>
       </c>
       <c r="D577" s="5" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="578" spans="2:4" ht="36" x14ac:dyDescent="0.25">
@@ -11463,7 +11488,7 @@
         <v>1003</v>
       </c>
       <c r="D578" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="579" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -11485,7 +11510,7 @@
         <v>1007</v>
       </c>
       <c r="D580" s="17" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="581" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -11507,7 +11532,7 @@
         <v>1011</v>
       </c>
       <c r="D582" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="583" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -11518,7 +11543,7 @@
         <v>1013</v>
       </c>
       <c r="D583" s="5" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="584" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -11540,7 +11565,7 @@
         <v>1016</v>
       </c>
       <c r="D585" s="5" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="586" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -11551,7 +11576,7 @@
         <v>1018</v>
       </c>
       <c r="D586" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="587" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -11562,7 +11587,7 @@
         <v>1020</v>
       </c>
       <c r="D587" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="588" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -11573,7 +11598,7 @@
         <v>1022</v>
       </c>
       <c r="D588" s="24" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="589" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -11584,7 +11609,7 @@
         <v>1011</v>
       </c>
       <c r="D589" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="590" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -11595,7 +11620,7 @@
         <v>1204</v>
       </c>
       <c r="D590" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="591" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -11606,7 +11631,7 @@
         <v>1026</v>
       </c>
       <c r="D591" s="24" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="592" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -11617,7 +11642,7 @@
         <v>1028</v>
       </c>
       <c r="D592" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="593" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -11628,7 +11653,7 @@
         <v>1030</v>
       </c>
       <c r="D593" s="8" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="594" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -11639,7 +11664,7 @@
         <v>1032</v>
       </c>
       <c r="D594" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="595" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -11650,7 +11675,7 @@
         <v>1034</v>
       </c>
       <c r="D595" s="5" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="596" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -11681,7 +11706,7 @@
         <v>1039</v>
       </c>
       <c r="D598" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="599" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -11692,7 +11717,7 @@
         <v>1040</v>
       </c>
       <c r="D599" s="5" t="s">
-        <v>1230</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="600" spans="1:4" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -11704,7 +11729,7 @@
         <v>1042</v>
       </c>
       <c r="D600" s="5" t="s">
-        <v>1230</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="601" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -11715,7 +11740,7 @@
         <v>1044</v>
       </c>
       <c r="D601" s="5" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="602" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -11726,7 +11751,7 @@
         <v>1205</v>
       </c>
       <c r="D602" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="603" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -11737,7 +11762,7 @@
         <v>1047</v>
       </c>
       <c r="D603" s="5" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="604" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -11768,7 +11793,7 @@
         <v>1052</v>
       </c>
       <c r="D606" s="8" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="607" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -11779,7 +11804,7 @@
         <v>1054</v>
       </c>
       <c r="D607" s="8" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="608" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -11790,7 +11815,7 @@
         <v>1206</v>
       </c>
       <c r="D608" s="8" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="609" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -11812,7 +11837,7 @@
         <v>1059</v>
       </c>
       <c r="D610" s="8" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="611" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -11823,7 +11848,7 @@
         <v>1061</v>
       </c>
       <c r="D611" s="8" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="612" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -11831,7 +11856,7 @@
         <v>1062</v>
       </c>
       <c r="C612" s="4" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="D612" s="5" t="s">
         <v>1213</v>
@@ -11878,7 +11903,7 @@
         <v>1069</v>
       </c>
       <c r="D616" s="5" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="617" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -11889,7 +11914,7 @@
         <v>1071</v>
       </c>
       <c r="D617" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="618" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -11911,7 +11936,7 @@
         <v>1207</v>
       </c>
       <c r="D619" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="620" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -11922,7 +11947,7 @@
         <v>1208</v>
       </c>
       <c r="D620" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="621" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -11933,7 +11958,7 @@
         <v>1077</v>
       </c>
       <c r="D621" s="5" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="622" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -11953,7 +11978,7 @@
         <v>1080</v>
       </c>
       <c r="D623" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="624" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -11964,7 +11989,7 @@
         <v>1082</v>
       </c>
       <c r="D624" s="5" t="s">
-        <v>1230</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="625" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -11975,7 +12000,7 @@
         <v>992</v>
       </c>
       <c r="D625" s="17" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="626" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -11986,7 +12011,7 @@
         <v>1085</v>
       </c>
       <c r="D626" s="5" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="627" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -11997,7 +12022,7 @@
         <v>1087</v>
       </c>
       <c r="D627" s="17" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="628" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -12008,7 +12033,7 @@
         <v>1209</v>
       </c>
       <c r="D628" s="17" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="629" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -12019,7 +12044,7 @@
         <v>1090</v>
       </c>
       <c r="D629" s="17" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="630" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -12030,7 +12055,7 @@
         <v>1092</v>
       </c>
       <c r="D630" s="17" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="631" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -12041,7 +12066,7 @@
         <v>1094</v>
       </c>
       <c r="D631" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="632" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -12052,7 +12077,7 @@
         <v>1096</v>
       </c>
       <c r="D632" s="17" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="633" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -12063,7 +12088,7 @@
         <v>1098</v>
       </c>
       <c r="D633" s="5" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="634" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -12153,7 +12178,7 @@
         <v>1112</v>
       </c>
       <c r="D641" s="5" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="642" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -12164,7 +12189,7 @@
         <v>1114</v>
       </c>
       <c r="D642" s="17" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="643" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -12175,7 +12200,7 @@
         <v>1210</v>
       </c>
       <c r="D643" s="8" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="644" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -12195,7 +12220,7 @@
         <v>1211</v>
       </c>
       <c r="D645" s="5" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="646" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -12206,7 +12231,7 @@
         <v>1119</v>
       </c>
       <c r="D646" s="5" t="s">
-        <v>1230</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="647" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -12217,7 +12242,7 @@
         <v>1121</v>
       </c>
       <c r="D647" s="5" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="648" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -12228,7 +12253,7 @@
         <v>1123</v>
       </c>
       <c r="D648" s="5" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="649" spans="1:4" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -12260,7 +12285,7 @@
         <v>1128</v>
       </c>
       <c r="D651" s="25" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="652" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -12271,7 +12296,7 @@
         <v>1130</v>
       </c>
       <c r="D652" s="25" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="653" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -12302,7 +12327,7 @@
         <v>1090</v>
       </c>
       <c r="D655" s="5" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="656" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -12324,7 +12349,7 @@
         <v>1138</v>
       </c>
       <c r="D657" s="8" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="658" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -12335,7 +12360,7 @@
         <v>1140</v>
       </c>
       <c r="D658" s="8" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="659" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -12346,7 +12371,7 @@
         <v>1212</v>
       </c>
       <c r="D659" s="8" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="660" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -12357,7 +12382,7 @@
         <v>1143</v>
       </c>
       <c r="D660" s="8" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="661" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -12368,7 +12393,7 @@
         <v>1145</v>
       </c>
       <c r="D661" s="24" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="662" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -12379,7 +12404,7 @@
         <v>1147</v>
       </c>
       <c r="D662" s="5" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="663" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -12401,7 +12426,7 @@
         <v>1140</v>
       </c>
       <c r="D664" s="8" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="665" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -12412,7 +12437,7 @@
         <v>1152</v>
       </c>
       <c r="D665" s="8" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="666" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -12423,7 +12448,7 @@
         <v>1154</v>
       </c>
       <c r="D666" s="8" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="667" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -12454,7 +12479,7 @@
         <v>1159</v>
       </c>
       <c r="D669" s="8" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="670" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -12465,7 +12490,7 @@
         <v>1161</v>
       </c>
       <c r="D670" s="8" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="671" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -12476,7 +12501,7 @@
         <v>1163</v>
       </c>
       <c r="D671" s="5" t="s">
-        <v>1244</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="672" spans="2:4" x14ac:dyDescent="0.25">
@@ -12490,6 +12515,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C495:C496"/>
+    <mergeCell ref="C264:C267"/>
+    <mergeCell ref="D264:D267"/>
+    <mergeCell ref="C471:C472"/>
+    <mergeCell ref="D471:D472"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="D174:D175"/>
@@ -12498,13 +12528,242 @@
     <mergeCell ref="D94:D96"/>
     <mergeCell ref="C104:C105"/>
     <mergeCell ref="D104:D105"/>
-    <mergeCell ref="C495:C496"/>
-    <mergeCell ref="C264:C267"/>
-    <mergeCell ref="D264:D267"/>
-    <mergeCell ref="C471:C472"/>
-    <mergeCell ref="D471:D472"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="65" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>284</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>229</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/FE/FE.xlsx
+++ b/data/FE/FE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14565" windowHeight="5805" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14565" windowHeight="5805"/>
   </bookViews>
   <sheets>
     <sheet name="POIs" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1955" uniqueCount="1250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1955" uniqueCount="1248">
   <si>
     <t>Unit No</t>
   </si>
@@ -3790,9 +3790,6 @@
     <t>Sportslife &amp; Lifestyle</t>
   </si>
   <si>
-    <t>Jewellery &amp; Timepiece</t>
-  </si>
-  <si>
     <t>Beauty Essentials</t>
   </si>
   <si>
@@ -3802,27 +3799,12 @@
     <t>Tattoos &amp; Body Art</t>
   </si>
   <si>
-    <t>Jewellery &amp; Time Piece</t>
-  </si>
-  <si>
-    <t>Lynn Jewellery &amp; Timepiecees</t>
-  </si>
-  <si>
-    <t>New City Jewellery &amp; Timepiecees</t>
-  </si>
-  <si>
-    <t>Three Crowns Jewellery &amp; Timepiece Pte Ltd</t>
-  </si>
-  <si>
     <t>Jewelley &amp; Timepiece</t>
   </si>
   <si>
     <t>Healthcare, Medical &amp; Dental</t>
   </si>
   <si>
-    <t>Jewellery &amp; Timepieces</t>
-  </si>
-  <si>
     <t>Jewellery &amp; Timepiese</t>
   </si>
   <si>
@@ -3863,6 +3845,18 @@
   </si>
   <si>
     <t>Beauty Academy &amp; Other Consultancy Services</t>
+  </si>
+  <si>
+    <t>Lynn Jewellery &amp; Watcheses</t>
+  </si>
+  <si>
+    <t>New City Jewellery &amp; Watcheses</t>
+  </si>
+  <si>
+    <t>Jewellery &amp; Watchess</t>
+  </si>
+  <si>
+    <t>Three Crowns Jewellery &amp; Watches Pte Ltd</t>
   </si>
 </sst>
 </file>
@@ -4285,19 +4279,10 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4307,6 +4292,30 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4322,21 +4331,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4627,8 +4621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E674"/>
   <sheetViews>
-    <sheetView topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="C276" sqref="C276"/>
+    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="D190" sqref="D190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5376,7 +5370,7 @@
         <v>21</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="18" x14ac:dyDescent="0.25">
@@ -5427,19 +5421,19 @@
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="66" t="s">
+      <c r="C15" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="68" t="s">
-        <v>1244</v>
+      <c r="D15" s="78" t="s">
+        <v>1238</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="67"/>
-      <c r="D16" s="68"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="78"/>
     </row>
     <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
@@ -5449,7 +5443,7 @@
         <v>34</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.25">
@@ -5693,7 +5687,7 @@
         <v>74</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -6228,10 +6222,10 @@
       <c r="B94" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C94" s="71" t="s">
+      <c r="C94" s="68" t="s">
         <v>152</v>
       </c>
-      <c r="D94" s="74" t="s">
+      <c r="D94" s="79" t="s">
         <v>72</v>
       </c>
       <c r="E94"/>
@@ -6240,15 +6234,15 @@
       <c r="B95" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C95" s="72"/>
-      <c r="D95" s="75"/>
+      <c r="C95" s="69"/>
+      <c r="D95" s="80"/>
     </row>
     <row r="96" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B96" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C96" s="73"/>
-      <c r="D96" s="76"/>
+      <c r="C96" s="70"/>
+      <c r="D96" s="81"/>
     </row>
     <row r="97" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B97" s="9" t="s">
@@ -6325,10 +6319,10 @@
       <c r="B104" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="C104" s="77" t="s">
+      <c r="C104" s="82" t="s">
         <v>166</v>
       </c>
-      <c r="D104" s="78" t="s">
+      <c r="D104" s="83" t="s">
         <v>72</v>
       </c>
     </row>
@@ -6336,8 +6330,8 @@
       <c r="B105" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="C105" s="77"/>
-      <c r="D105" s="78"/>
+      <c r="C105" s="82"/>
+      <c r="D105" s="83"/>
     </row>
     <row r="106" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B106" s="9" t="s">
@@ -6410,7 +6404,7 @@
         <v>179</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="18" x14ac:dyDescent="0.25">
@@ -6432,7 +6426,7 @@
         <v>183</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
       <c r="E114" s="18"/>
     </row>
@@ -6453,7 +6447,7 @@
         <v>186</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
       <c r="E116" s="18"/>
     </row>
@@ -6473,7 +6467,7 @@
         <v>189</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="18" x14ac:dyDescent="0.25">
@@ -6495,7 +6489,7 @@
         <v>193</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
       <c r="E120" s="18"/>
     </row>
@@ -6507,7 +6501,7 @@
         <v>195</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
       <c r="E121" s="18"/>
     </row>
@@ -6519,7 +6513,7 @@
         <v>197</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>1225</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="123" spans="1:5" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -6544,7 +6538,7 @@
         <v>199</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E124"/>
     </row>
@@ -6556,7 +6550,7 @@
         <v>201</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>1225</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="18" x14ac:dyDescent="0.25">
@@ -6625,7 +6619,7 @@
         <v>213</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="18" x14ac:dyDescent="0.25">
@@ -6636,7 +6630,7 @@
         <v>215</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>1225</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="18" x14ac:dyDescent="0.25">
@@ -6656,7 +6650,7 @@
         <v>218</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>1225</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="18" x14ac:dyDescent="0.25">
@@ -6667,7 +6661,7 @@
         <v>220</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>1225</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="18" x14ac:dyDescent="0.25">
@@ -6684,10 +6678,10 @@
         <v>222</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>1225</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="18" x14ac:dyDescent="0.25">
@@ -6698,7 +6692,7 @@
         <v>224</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>1225</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="18" x14ac:dyDescent="0.25">
@@ -6709,7 +6703,7 @@
         <v>226</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="18" x14ac:dyDescent="0.25">
@@ -6720,7 +6714,7 @@
         <v>228</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="18" x14ac:dyDescent="0.25">
@@ -6731,7 +6725,7 @@
         <v>231</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="18" x14ac:dyDescent="0.25">
@@ -6764,7 +6758,7 @@
         <v>237</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -6775,7 +6769,7 @@
         <v>239</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -6786,7 +6780,7 @@
         <v>241</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="147" spans="1:4" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -6798,7 +6792,7 @@
         <v>243</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>1225</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -6851,7 +6845,7 @@
         <v>251</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -6873,7 +6867,7 @@
         <v>255</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -6895,7 +6889,7 @@
         <v>259</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -6917,7 +6911,7 @@
         <v>262</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -6928,7 +6922,7 @@
         <v>264</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="160" spans="1:4" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -6963,7 +6957,7 @@
         <v>270</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>1225</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -6974,7 +6968,7 @@
         <v>272</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>1225</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -6985,7 +6979,7 @@
         <v>274</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -6996,7 +6990,7 @@
         <v>276</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7018,7 +7012,7 @@
         <v>280</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>1229</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="168" spans="1:4" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -7072,7 +7066,7 @@
         <v>289</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>1225</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7093,8 +7087,8 @@
       <c r="C174" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="D174" s="69" t="s">
-        <v>1241</v>
+      <c r="D174" s="74" t="s">
+        <v>1235</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7104,7 +7098,7 @@
       <c r="C175" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="D175" s="70"/>
+      <c r="D175" s="75"/>
     </row>
     <row r="176" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B176" s="12" t="s">
@@ -7113,8 +7107,8 @@
       <c r="C176" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="D176" s="68" t="s">
-        <v>1225</v>
+      <c r="D176" s="78" t="s">
+        <v>1234</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7124,7 +7118,7 @@
       <c r="C177" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="D177" s="68"/>
+      <c r="D177" s="78"/>
     </row>
     <row r="178" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B178" s="4" t="s">
@@ -7134,7 +7128,7 @@
         <v>299</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>1229</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="179" spans="1:4" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -7146,7 +7140,7 @@
         <v>301</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>1229</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7157,7 +7151,7 @@
         <v>303</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>1229</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7211,7 +7205,7 @@
         <v>312</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7222,7 +7216,7 @@
         <v>314</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>1225</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7233,7 +7227,7 @@
         <v>316</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7244,7 +7238,7 @@
         <v>318</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>1225</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7255,7 +7249,7 @@
         <v>320</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7278,7 +7272,7 @@
         <v>324</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7289,7 +7283,7 @@
         <v>326</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>1225</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7300,7 +7294,7 @@
         <v>328</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7311,7 +7305,7 @@
         <v>330</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7333,7 +7327,7 @@
         <v>334</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7364,7 +7358,7 @@
         <v>339</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7375,7 +7369,7 @@
         <v>341</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7420,7 +7414,7 @@
         <v>349</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>1225</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7431,7 +7425,7 @@
         <v>351</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>1225</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7442,7 +7436,7 @@
         <v>1167</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7450,10 +7444,10 @@
         <v>353</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>1230</v>
+        <v>1244</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>1225</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7464,7 +7458,7 @@
         <v>355</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7475,7 +7469,7 @@
         <v>357</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>1225</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="210" spans="1:4" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -7497,7 +7491,7 @@
         <v>360</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>1225</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7508,7 +7502,7 @@
         <v>1168</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>1225</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7519,7 +7513,7 @@
         <v>363</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7541,7 +7535,7 @@
         <v>366</v>
       </c>
       <c r="D215" s="28" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7552,7 +7546,7 @@
         <v>368</v>
       </c>
       <c r="D216" s="30" t="s">
-        <v>1233</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7574,7 +7568,7 @@
         <v>372</v>
       </c>
       <c r="D218" s="30" t="s">
-        <v>1233</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7649,7 +7643,7 @@
         <v>382</v>
       </c>
       <c r="D225" s="5" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7713,7 +7707,7 @@
         <v>393</v>
       </c>
       <c r="D231" s="5" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7759,7 +7753,7 @@
         <v>401</v>
       </c>
       <c r="D235" s="5" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -7993,7 +7987,7 @@
         <v>1175</v>
       </c>
       <c r="D256" s="5" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -8076,10 +8070,10 @@
       <c r="B264" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="C264" s="71" t="s">
+      <c r="C264" s="68" t="s">
         <v>452</v>
       </c>
-      <c r="D264" s="81" t="s">
+      <c r="D264" s="71" t="s">
         <v>1214</v>
       </c>
     </row>
@@ -8087,22 +8081,22 @@
       <c r="B265" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="C265" s="72"/>
-      <c r="D265" s="82"/>
+      <c r="C265" s="69"/>
+      <c r="D265" s="72"/>
     </row>
     <row r="266" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B266" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="C266" s="72"/>
-      <c r="D266" s="82"/>
+      <c r="C266" s="69"/>
+      <c r="D266" s="72"/>
     </row>
     <row r="267" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B267" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="C267" s="73"/>
-      <c r="D267" s="83"/>
+      <c r="C267" s="70"/>
+      <c r="D267" s="73"/>
     </row>
     <row r="268" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B268" s="4" t="s">
@@ -8134,7 +8128,7 @@
         <v>461</v>
       </c>
       <c r="D270" s="25" t="s">
-        <v>1225</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -8145,7 +8139,7 @@
         <v>463</v>
       </c>
       <c r="D271" s="5" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="272" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -8167,7 +8161,7 @@
         <v>467</v>
       </c>
       <c r="D273" s="5" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="274" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -8189,7 +8183,7 @@
         <v>471</v>
       </c>
       <c r="D275" s="5" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="276" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -8211,7 +8205,7 @@
         <v>475</v>
       </c>
       <c r="D277" s="5" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="278" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -8280,7 +8274,7 @@
         <v>485</v>
       </c>
       <c r="D284" s="24" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="285" spans="1:4" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -8314,7 +8308,7 @@
         <v>491</v>
       </c>
       <c r="D287" s="5" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="288" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -8334,7 +8328,7 @@
         <v>494</v>
       </c>
       <c r="D289" s="8" t="s">
-        <v>1225</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="290" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -8400,7 +8394,7 @@
         <v>505</v>
       </c>
       <c r="D295" s="5" t="s">
-        <v>1233</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="296" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -8420,10 +8414,10 @@
         <v>508</v>
       </c>
       <c r="C297" s="6" t="s">
-        <v>1231</v>
+        <v>1245</v>
       </c>
       <c r="D297" s="8" t="s">
-        <v>1235</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="298" spans="1:4" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -8435,7 +8429,7 @@
         <v>510</v>
       </c>
       <c r="D298" s="5" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="299" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -8457,7 +8451,7 @@
         <v>514</v>
       </c>
       <c r="D300" s="8" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="301" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -8468,7 +8462,7 @@
         <v>1179</v>
       </c>
       <c r="D301" s="8" t="s">
-        <v>1225</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="302" spans="1:4" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -8480,7 +8474,7 @@
         <v>517</v>
       </c>
       <c r="D302" s="17" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="303" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -8491,7 +8485,7 @@
         <v>519</v>
       </c>
       <c r="D303" s="8" t="s">
-        <v>1225</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="304" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -8502,7 +8496,7 @@
         <v>521</v>
       </c>
       <c r="D304" s="17" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="305" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -8513,7 +8507,7 @@
         <v>522</v>
       </c>
       <c r="D305" s="17" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="306" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -8535,7 +8529,7 @@
         <v>526</v>
       </c>
       <c r="D307" s="5" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="308" spans="1:4" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -8569,7 +8563,7 @@
         <v>532</v>
       </c>
       <c r="D310" s="5" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="311" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -8580,7 +8574,7 @@
         <v>534</v>
       </c>
       <c r="D311" s="5" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="312" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -8646,7 +8640,7 @@
         <v>545</v>
       </c>
       <c r="D317" s="25" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="318" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -8808,10 +8802,10 @@
         <v>570</v>
       </c>
       <c r="C332" s="33" t="s">
-        <v>1232</v>
+        <v>1247</v>
       </c>
       <c r="D332" s="5" t="s">
-        <v>1225</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="333" spans="1:4" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -8823,7 +8817,7 @@
         <v>1182</v>
       </c>
       <c r="D333" s="5" t="s">
-        <v>1225</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="334" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -8857,7 +8851,7 @@
         <v>577</v>
       </c>
       <c r="D336" s="8" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="337" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -8990,7 +8984,7 @@
         <v>599</v>
       </c>
       <c r="D348" s="5" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="349" spans="1:4" ht="36" x14ac:dyDescent="0.25">
@@ -9087,7 +9081,7 @@
         <v>616</v>
       </c>
       <c r="D357" s="5" t="s">
-        <v>1225</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="358" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -9252,7 +9246,7 @@
         <v>1187</v>
       </c>
       <c r="D372" s="8" t="s">
-        <v>1225</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="373" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -9296,7 +9290,7 @@
         <v>647</v>
       </c>
       <c r="D376" s="8" t="s">
-        <v>1225</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="377" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -9307,7 +9301,7 @@
         <v>649</v>
       </c>
       <c r="D377" s="5" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="378" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -9437,7 +9431,7 @@
         <v>667</v>
       </c>
       <c r="D389" s="5" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="390" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -9503,7 +9497,7 @@
         <v>678</v>
       </c>
       <c r="D395" s="5" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="396" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -9514,7 +9508,7 @@
         <v>680</v>
       </c>
       <c r="D396" s="5" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="397" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -9536,7 +9530,7 @@
         <v>684</v>
       </c>
       <c r="D398" s="5" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="399" spans="1:4" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -9568,7 +9562,7 @@
         <v>689</v>
       </c>
       <c r="D401" s="5" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="402" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -9579,7 +9573,7 @@
         <v>691</v>
       </c>
       <c r="D402" s="5" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="403" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -9590,7 +9584,7 @@
         <v>693</v>
       </c>
       <c r="D403" s="5" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="404" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -9601,7 +9595,7 @@
         <v>695</v>
       </c>
       <c r="D404" s="5" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="405" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -9612,7 +9606,7 @@
         <v>697</v>
       </c>
       <c r="D405" s="5" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="406" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -9632,7 +9626,7 @@
         <v>1191</v>
       </c>
       <c r="D407" s="5" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="408" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -9719,7 +9713,7 @@
         <v>714</v>
       </c>
       <c r="D415" s="5" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="416" spans="1:4" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -9823,7 +9817,7 @@
       </c>
       <c r="C425" s="50"/>
       <c r="D425" s="5" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="426" spans="1:4" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -9868,7 +9862,7 @@
         <v>737</v>
       </c>
       <c r="D429" s="5" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="430" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -9910,7 +9904,7 @@
         <v>744</v>
       </c>
       <c r="D433" s="8" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="434" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -9921,7 +9915,7 @@
         <v>746</v>
       </c>
       <c r="D434" s="8" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="435" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -10036,7 +10030,7 @@
         <v>670</v>
       </c>
       <c r="D445" s="5" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="446" spans="1:4" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -10104,7 +10098,7 @@
         <v>1194</v>
       </c>
       <c r="D451" s="5" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="452" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -10148,7 +10142,7 @@
         <v>783</v>
       </c>
       <c r="D455" s="19" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="456" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -10159,7 +10153,7 @@
         <v>785</v>
       </c>
       <c r="D456" s="19" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="457" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -10181,7 +10175,7 @@
         <v>789</v>
       </c>
       <c r="D458" s="19" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="459" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -10192,7 +10186,7 @@
         <v>791</v>
       </c>
       <c r="D459" s="19" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="460" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -10225,7 +10219,7 @@
         <v>796</v>
       </c>
       <c r="D462" s="5" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="463" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -10236,7 +10230,7 @@
         <v>798</v>
       </c>
       <c r="D463" s="5" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="464" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -10258,7 +10252,7 @@
         <v>802</v>
       </c>
       <c r="D465" s="5" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="466" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -10269,7 +10263,7 @@
         <v>804</v>
       </c>
       <c r="D466" s="5" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="467" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -10291,7 +10285,7 @@
         <v>783</v>
       </c>
       <c r="D468" s="19" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="469" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -10314,26 +10308,26 @@
         <v>810</v>
       </c>
       <c r="D470" s="5" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="471" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B471" s="12" t="s">
         <v>811</v>
       </c>
-      <c r="C471" s="79" t="s">
+      <c r="C471" s="66" t="s">
         <v>812</v>
       </c>
-      <c r="D471" s="69" t="s">
-        <v>1248</v>
+      <c r="D471" s="74" t="s">
+        <v>1242</v>
       </c>
     </row>
     <row r="472" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B472" s="6" t="s">
         <v>813</v>
       </c>
-      <c r="C472" s="80"/>
-      <c r="D472" s="70"/>
+      <c r="C472" s="67"/>
+      <c r="D472" s="75"/>
     </row>
     <row r="473" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B473" s="12" t="s">
@@ -10376,7 +10370,7 @@
         <v>820</v>
       </c>
       <c r="D476" s="5" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="477" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -10418,7 +10412,7 @@
         <v>827</v>
       </c>
       <c r="D480" s="8" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="481" spans="1:4" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -10441,7 +10435,7 @@
         <v>830</v>
       </c>
       <c r="D482" s="5" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="483" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -10470,7 +10464,7 @@
         <v>835</v>
       </c>
       <c r="D485" s="5" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="486" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -10481,7 +10475,7 @@
         <v>837</v>
       </c>
       <c r="D486" s="17" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="487" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -10515,7 +10509,7 @@
         <v>842</v>
       </c>
       <c r="D489" s="5" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="490" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -10537,7 +10531,7 @@
         <v>846</v>
       </c>
       <c r="D491" s="5" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="492" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -10571,27 +10565,27 @@
         <v>852</v>
       </c>
       <c r="D494" s="5" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="495" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B495" s="12" t="s">
         <v>853</v>
       </c>
-      <c r="C495" s="79" t="s">
+      <c r="C495" s="66" t="s">
         <v>854</v>
       </c>
       <c r="D495" s="5" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="496" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B496" s="4" t="s">
         <v>855</v>
       </c>
-      <c r="C496" s="80"/>
+      <c r="C496" s="67"/>
       <c r="D496" s="5" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="497" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -10602,7 +10596,7 @@
         <v>857</v>
       </c>
       <c r="D497" s="5" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="498" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -10624,7 +10618,7 @@
         <v>857</v>
       </c>
       <c r="D499" s="5" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="500" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -10746,7 +10740,7 @@
         <v>881</v>
       </c>
       <c r="D510" s="5" t="s">
-        <v>1225</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="511" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -10766,7 +10760,7 @@
         <v>884</v>
       </c>
       <c r="D512" s="8" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="513" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -10905,7 +10899,7 @@
         <v>908</v>
       </c>
       <c r="D525" s="5" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="526" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -10958,7 +10952,7 @@
         <v>915</v>
       </c>
       <c r="D530" s="5" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="531" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -10991,7 +10985,7 @@
         <v>920</v>
       </c>
       <c r="D533" s="5" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="534" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -11002,7 +10996,7 @@
         <v>922</v>
       </c>
       <c r="D534" s="5" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="535" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -11088,7 +11082,7 @@
         <v>934</v>
       </c>
       <c r="D542" s="5" t="s">
-        <v>1225</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="543" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -11244,7 +11238,7 @@
         <v>960</v>
       </c>
       <c r="D556" s="5" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="557" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -11255,7 +11249,7 @@
         <v>962</v>
       </c>
       <c r="D557" s="5" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="558" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -11266,7 +11260,7 @@
         <v>964</v>
       </c>
       <c r="D558" s="5" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="559" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -11299,7 +11293,7 @@
         <v>970</v>
       </c>
       <c r="D561" s="25" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="562" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -11321,7 +11315,7 @@
         <v>974</v>
       </c>
       <c r="D563" s="5" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="564" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -11355,7 +11349,7 @@
         <v>980</v>
       </c>
       <c r="D566" s="5" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="567" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -11422,7 +11416,7 @@
         <v>992</v>
       </c>
       <c r="D572" s="17" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="573" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -11510,7 +11504,7 @@
         <v>1007</v>
       </c>
       <c r="D580" s="17" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="581" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -11543,7 +11537,7 @@
         <v>1013</v>
       </c>
       <c r="D583" s="5" t="s">
-        <v>1225</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="584" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -11565,7 +11559,7 @@
         <v>1016</v>
       </c>
       <c r="D585" s="5" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="586" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -11598,7 +11592,7 @@
         <v>1022</v>
       </c>
       <c r="D588" s="24" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="589" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -11631,7 +11625,7 @@
         <v>1026</v>
       </c>
       <c r="D591" s="24" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="592" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -11653,7 +11647,7 @@
         <v>1030</v>
       </c>
       <c r="D593" s="8" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="594" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -11717,7 +11711,7 @@
         <v>1040</v>
       </c>
       <c r="D599" s="5" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="600" spans="1:4" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -11729,7 +11723,7 @@
         <v>1042</v>
       </c>
       <c r="D600" s="5" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="601" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -11762,7 +11756,7 @@
         <v>1047</v>
       </c>
       <c r="D603" s="5" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="604" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -11793,7 +11787,7 @@
         <v>1052</v>
       </c>
       <c r="D606" s="8" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="607" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -11804,7 +11798,7 @@
         <v>1054</v>
       </c>
       <c r="D607" s="8" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="608" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -11815,7 +11809,7 @@
         <v>1206</v>
       </c>
       <c r="D608" s="8" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="609" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -11856,7 +11850,7 @@
         <v>1062</v>
       </c>
       <c r="C612" s="4" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="D612" s="5" t="s">
         <v>1213</v>
@@ -11903,7 +11897,7 @@
         <v>1069</v>
       </c>
       <c r="D616" s="5" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="617" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -11958,7 +11952,7 @@
         <v>1077</v>
       </c>
       <c r="D621" s="5" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="622" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -11989,7 +11983,7 @@
         <v>1082</v>
       </c>
       <c r="D624" s="5" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="625" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -12000,7 +11994,7 @@
         <v>992</v>
       </c>
       <c r="D625" s="17" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="626" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -12022,7 +12016,7 @@
         <v>1087</v>
       </c>
       <c r="D627" s="17" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="628" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -12033,7 +12027,7 @@
         <v>1209</v>
       </c>
       <c r="D628" s="17" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="629" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -12044,7 +12038,7 @@
         <v>1090</v>
       </c>
       <c r="D629" s="17" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="630" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -12055,7 +12049,7 @@
         <v>1092</v>
       </c>
       <c r="D630" s="17" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="631" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -12077,7 +12071,7 @@
         <v>1096</v>
       </c>
       <c r="D632" s="17" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="633" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -12189,7 +12183,7 @@
         <v>1114</v>
       </c>
       <c r="D642" s="17" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="643" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -12231,7 +12225,7 @@
         <v>1119</v>
       </c>
       <c r="D646" s="5" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="647" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -12242,7 +12236,7 @@
         <v>1121</v>
       </c>
       <c r="D647" s="5" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="648" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -12253,7 +12247,7 @@
         <v>1123</v>
       </c>
       <c r="D648" s="5" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="649" spans="1:4" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -12285,7 +12279,7 @@
         <v>1128</v>
       </c>
       <c r="D651" s="25" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="652" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -12296,7 +12290,7 @@
         <v>1130</v>
       </c>
       <c r="D652" s="25" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="653" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -12327,7 +12321,7 @@
         <v>1090</v>
       </c>
       <c r="D655" s="5" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="656" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -12404,7 +12398,7 @@
         <v>1147</v>
       </c>
       <c r="D662" s="5" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="663" spans="2:4" ht="18" x14ac:dyDescent="0.25">
@@ -12501,7 +12495,7 @@
         <v>1163</v>
       </c>
       <c r="D671" s="5" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="672" spans="2:4" x14ac:dyDescent="0.25">
@@ -12515,11 +12509,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C495:C496"/>
-    <mergeCell ref="C264:C267"/>
-    <mergeCell ref="D264:D267"/>
-    <mergeCell ref="C471:C472"/>
-    <mergeCell ref="D471:D472"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="D174:D175"/>
@@ -12528,6 +12517,11 @@
     <mergeCell ref="D94:D96"/>
     <mergeCell ref="C104:C105"/>
     <mergeCell ref="D104:D105"/>
+    <mergeCell ref="C495:C496"/>
+    <mergeCell ref="C264:C267"/>
+    <mergeCell ref="D264:D267"/>
+    <mergeCell ref="C471:C472"/>
+    <mergeCell ref="D471:D472"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12538,7 +12532,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12548,18 +12544,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="65" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
       <c r="B1" s="65" t="s">
-        <v>1246</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1245</v>
+        <v>1239</v>
       </c>
       <c r="B2" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -12567,7 +12563,7 @@
         <v>1215</v>
       </c>
       <c r="B3" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -12575,15 +12571,15 @@
         <v>1214</v>
       </c>
       <c r="B4" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
       <c r="B5" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -12604,7 +12600,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
       <c r="B8" t="s">
         <v>1217</v>
@@ -12612,10 +12608,10 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
       <c r="B9" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -12623,7 +12619,7 @@
         <v>1218</v>
       </c>
       <c r="B10" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -12631,7 +12627,7 @@
         <v>1221</v>
       </c>
       <c r="B11" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -12639,7 +12635,7 @@
         <v>1219</v>
       </c>
       <c r="B12" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -12647,7 +12643,7 @@
         <v>1220</v>
       </c>
       <c r="B13" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -12655,7 +12651,7 @@
         <v>1222</v>
       </c>
       <c r="B14" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -12663,7 +12659,7 @@
         <v>72</v>
       </c>
       <c r="B15" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -12671,7 +12667,7 @@
         <v>1223</v>
       </c>
       <c r="B16" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -12679,7 +12675,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -12687,31 +12683,31 @@
         <v>1224</v>
       </c>
       <c r="B18" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B19" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="B20" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B21" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -12719,7 +12715,7 @@
         <v>284</v>
       </c>
       <c r="B22" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -12727,39 +12723,39 @@
         <v>229</v>
       </c>
       <c r="B23" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="B24" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B25" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
       <c r="B26" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="B27" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
     </row>
   </sheetData>
